--- a/data_config/SkillDirection.xlsx
+++ b/data_config/SkillDirection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -581,12 +581,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1465,10 +1465,10 @@
   <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F44" sqref="F44"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1828,13 +1828,6 @@
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" customFormat="1" spans="5:10">
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:10">
       <c r="A15" t="s">

--- a/data_config/SkillDirection.xlsx
+++ b/data_config/SkillDirection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="15675" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -265,6 +265,18 @@
     <t>目标指示参数</t>
   </si>
   <si>
+    <t>唐依 普通攻击</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>15008102,6000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>上官唯 普通攻击</t>
   </si>
   <si>
@@ -274,9 +286,6 @@
     <t>15008102,1500,1500,0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>上官唯 技能1</t>
   </si>
   <si>
@@ -314,15 +323,6 @@
   </si>
   <si>
     <t>手中的剑犹如血的魔力涌动，每次普通攻击都有 50% 的概率吸取生命(普通攻击造成伤害的 20%)。</t>
-  </si>
-  <si>
-    <t>唐依 普通攻击</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>15008102,6000</t>
   </si>
   <si>
     <t>雷霆穿云(Q)</t>
@@ -1463,12 +1463,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1580,401 +1580,112 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2601001</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="3:4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2003101</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="8"/>
-      <c r="B5">
-        <v>2601002</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>2601003</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>2601004</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:10">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>2601005</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:10">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>2601006</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>2601007</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="3:10">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" customFormat="1" spans="3:10">
+    </row>
+    <row r="12" spans="3:4">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" customFormat="1" spans="3:10">
+    </row>
+    <row r="13" spans="3:4">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:10">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>2601021</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>2601022</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>2601023</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>2601024</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>26</v>
-      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>2601025</v>
+        <v>2601001</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1982,81 +1693,131 @@
       <c r="H19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:10">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="8"/>
       <c r="B20">
-        <v>2601026</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="2" t="s">
+        <v>2601002</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:10">
+        <v>32</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:10">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>2601003</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>2601004</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:10">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23">
-        <v>2601050</v>
+        <v>2601005</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -2065,44 +1826,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="3:4">
+    <row r="24" customFormat="1" spans="1:10">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>2601006</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:10">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>2601007</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="3:10">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="3:4">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" customFormat="1" spans="3:10">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" customFormat="1" spans="3:10">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:10">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30">
-        <v>2602001</v>
+        <v>2601021</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>56</v>
+        <v>23</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2110,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>2602002</v>
+        <v>2601022</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>26</v>
@@ -2130,29 +1974,75 @@
       <c r="H31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>2601023</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33">
-        <v>2602011</v>
+        <v>2601024</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2160,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>2602012</v>
+        <v>2601025</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>26</v>
@@ -2181,186 +2071,176 @@
         <v>26</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>2603001</v>
-      </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:10">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>2601026</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="14">
-        <v>2603002</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="14">
-        <v>2603003</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="14">
-        <v>2603004</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>2603050</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43">
-        <v>2603051</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44">
-        <v>2603052</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>2601050</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>2602001</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>2602002</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>2602011</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2368,30 +2248,238 @@
         <v>0</v>
       </c>
       <c r="B49">
+        <v>2602012</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>2603001</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="14">
+        <v>2603002</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="14">
+        <v>2603003</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="14">
+        <v>2603004</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>2603050</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>2603051</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>2603052</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
         <v>2605001</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C64" t="s">
         <v>72</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D64" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="E64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3">
         <v>0</v>
       </c>
     </row>
